--- a/results/region_genre_10_misc.xlsx
+++ b/results/region_genre_10_misc.xlsx
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>119907.2233</v>
+        <v>102025.7512</v>
       </c>
       <c r="G2" t="n">
-        <v>0.001</v>
+        <v>0.0173</v>
       </c>
       <c r="H2" t="n">
-        <v>74742.4323</v>
+        <v>7735.7046</v>
       </c>
       <c r="I2" t="n">
-        <v>165072.0144</v>
+        <v>196315.7978</v>
       </c>
       <c r="J2" t="b">
         <v>1</v>
@@ -545,19 +545,19 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>-28654.7382</v>
+        <v>-130550.2493</v>
       </c>
       <c r="G3" t="n">
-        <v>0.776</v>
+        <v>0.001</v>
       </c>
       <c r="H3" t="n">
-        <v>-73819.52929999999</v>
+        <v>-228544.3043</v>
       </c>
       <c r="I3" t="n">
-        <v>16510.0528</v>
+        <v>-32556.1943</v>
       </c>
       <c r="J3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -585,16 +585,16 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>32193.5056</v>
+        <v>3768.6234</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5854</v>
+        <v>0.9</v>
       </c>
       <c r="H4" t="n">
-        <v>-12971.2854</v>
+        <v>-95255.6505</v>
       </c>
       <c r="I4" t="n">
-        <v>77358.29670000001</v>
+        <v>102792.8973</v>
       </c>
       <c r="J4" t="b">
         <v>0</v>
@@ -625,16 +625,16 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>-148561.9616</v>
+        <v>-232576.0004</v>
       </c>
       <c r="G5" t="n">
         <v>0.001</v>
       </c>
       <c r="H5" t="n">
-        <v>-193726.7526</v>
+        <v>-314334.1468</v>
       </c>
       <c r="I5" t="n">
-        <v>-103397.1705</v>
+        <v>-150817.8541</v>
       </c>
       <c r="J5" t="b">
         <v>1</v>
@@ -665,16 +665,16 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>-87713.71769999999</v>
+        <v>-98257.1278</v>
       </c>
       <c r="G6" t="n">
-        <v>0.001</v>
+        <v>0.0039</v>
       </c>
       <c r="H6" t="n">
-        <v>-132878.5087</v>
+        <v>-181247.2869</v>
       </c>
       <c r="I6" t="n">
-        <v>-42548.9267</v>
+        <v>-15266.9686</v>
       </c>
       <c r="J6" t="b">
         <v>1</v>
@@ -705,16 +705,16 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>60848.2439</v>
+        <v>134318.8727</v>
       </c>
       <c r="G7" t="n">
         <v>0.001</v>
       </c>
       <c r="H7" t="n">
-        <v>15683.4528</v>
+        <v>47143.2543</v>
       </c>
       <c r="I7" t="n">
-        <v>106013.0349</v>
+        <v>221494.4911</v>
       </c>
       <c r="J7" t="b">
         <v>1</v>
